--- a/Stilling-Anarkist.xlsx
+++ b/Stilling-Anarkist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\holdquizzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48571489-A692-4A89-85BE-AC2E3E26FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39587FB2-8C03-42B8-B151-047FEE9C551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34695" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31020" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,14 +589,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="3">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3">
-        <v>28</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -607,7 +603,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3">
         <f>SUM(B2:L2)</f>
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -666,14 +662,10 @@
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3">
-        <v>21</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -693,10 +685,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -709,7 +701,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3">
         <f>SUM(B6:L6)</f>
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -718,7 +710,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -731,7 +723,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M12" si="0">SUM(C7:L7)</f>
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -740,7 +732,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -753,7 +745,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -762,7 +754,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -775,7 +767,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -784,7 +776,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -797,7 +789,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -806,7 +798,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -819,7 +811,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -831,7 +823,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="3">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -843,7 +835,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -919,7 +911,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -931,7 +923,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
